--- a/quechua.xlsx
+++ b/quechua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eddfadd97cee73de/Documents/GitHub/conjugador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99AE42-1960-4F8B-A2B1-B70DA18CAE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{6E99AE42-1960-4F8B-A2B1-B70DA18CAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{483816F3-6738-4450-AA43-A95B118D3EBC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pronombres" sheetId="1" r:id="rId1"/>
@@ -115,27 +115,9 @@
     <t>chkanku</t>
   </si>
   <si>
-    <t>qkani</t>
-  </si>
-  <si>
-    <t>qkanchik</t>
-  </si>
-  <si>
-    <t>qkaniku</t>
-  </si>
-  <si>
-    <t>qkanki</t>
-  </si>
-  <si>
-    <t>qkankichik</t>
-  </si>
-  <si>
     <t>qmi</t>
   </si>
   <si>
-    <t>qkanku</t>
-  </si>
-  <si>
     <t>rqani</t>
   </si>
   <si>
@@ -178,27 +160,6 @@
     <t>chkarqanku</t>
   </si>
   <si>
-    <t>qkarqani</t>
-  </si>
-  <si>
-    <t>qkarqanchik</t>
-  </si>
-  <si>
-    <t>qkarqaniku</t>
-  </si>
-  <si>
-    <t>qkarqanki</t>
-  </si>
-  <si>
-    <t>qkarqankichik</t>
-  </si>
-  <si>
-    <t>qkarqan</t>
-  </si>
-  <si>
-    <t>qkarqanku</t>
-  </si>
-  <si>
     <t>sqani</t>
   </si>
   <si>
@@ -241,28 +202,67 @@
     <t>chkasqanku</t>
   </si>
   <si>
-    <t>qkasqani</t>
-  </si>
-  <si>
-    <t>qkasqanchik</t>
-  </si>
-  <si>
-    <t>qkasqaniku</t>
-  </si>
-  <si>
-    <t>qkasqanki</t>
-  </si>
-  <si>
-    <t>qkasqankichik</t>
-  </si>
-  <si>
-    <t>qkasqan</t>
-  </si>
-  <si>
-    <t>qkasqanku</t>
-  </si>
-  <si>
     <t>nkichik</t>
+  </si>
+  <si>
+    <t>q kani</t>
+  </si>
+  <si>
+    <t>q kanki</t>
+  </si>
+  <si>
+    <t>q kanchik</t>
+  </si>
+  <si>
+    <t>q kaniku</t>
+  </si>
+  <si>
+    <t>q kankichik</t>
+  </si>
+  <si>
+    <t>q kanku</t>
+  </si>
+  <si>
+    <t>q karqani</t>
+  </si>
+  <si>
+    <t>q karqanki</t>
+  </si>
+  <si>
+    <t>q karqan</t>
+  </si>
+  <si>
+    <t>q karqanchik</t>
+  </si>
+  <si>
+    <t>q karqaniku</t>
+  </si>
+  <si>
+    <t>q karqankichik</t>
+  </si>
+  <si>
+    <t>q karqanku</t>
+  </si>
+  <si>
+    <t>q kasqani</t>
+  </si>
+  <si>
+    <t>q kasqanki</t>
+  </si>
+  <si>
+    <t>q kasqan</t>
+  </si>
+  <si>
+    <t>q kasqanchik</t>
+  </si>
+  <si>
+    <t>q kasqaniku</t>
+  </si>
+  <si>
+    <t>q kasqankichik</t>
+  </si>
+  <si>
+    <t>q kasqanku</t>
   </si>
 </sst>
 </file>
@@ -280,6 +280,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -304,8 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +601,9 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -620,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,10 +656,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,7 +821,9 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -838,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,10 +876,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -909,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,10 +925,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,10 +947,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -991,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1002,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,10 +1018,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1026,6 +1031,79 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1051,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1062,10 +1140,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,10 +1151,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1084,81 +1162,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1200,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,10 +1222,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
